--- a/禁止用語リスト.xlsx
+++ b/禁止用語リスト.xlsx
@@ -1,64 +1,319 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teacher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>禁止用語</t>
     <rPh sb="0" eb="4">
       <t>キンシヨウゴ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>くそ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬鹿</t>
+    <rPh sb="0" eb="2">
+      <t>バカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死ね</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シネ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アホ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボケ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハゲ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チビ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消えろ</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶさいく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブサイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きもい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のろま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きっしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殺す</t>
+    <rPh sb="0" eb="1">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しばくぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリエマンコビッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寝取り</t>
+    <rPh sb="0" eb="2">
+      <t>ネト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミカス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情弱</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウジャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チー牛</t>
+    <rPh sb="2" eb="3">
+      <t>ギュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャラップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黙れ</t>
+    <rPh sb="0" eb="1">
+      <t>ダマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だまれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脳みそある？</t>
+    <rPh sb="0" eb="1">
+      <t>ノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭働いている</t>
+    <rPh sb="0" eb="2">
+      <t>アタマハタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファッキュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゃべるな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話しかけてくんなよ</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばばあ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>老害</t>
+    <rPh sb="0" eb="2">
+      <t>ロウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きめぇ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外人</t>
+    <rPh sb="0" eb="2">
+      <t>ガイジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人外</t>
+    <rPh sb="0" eb="2">
+      <t>ジンガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きちがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キチガイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くせぇ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脳みそないんか</t>
+    <rPh sb="0" eb="1">
+      <t>ノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スロカス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パチンカス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パチカス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤニカス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADHD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒人</t>
+    <rPh sb="0" eb="2">
+      <t>コクジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -71,7 +326,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -79,36 +334,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -131,44 +372,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -201,9 +442,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -242,188 +483,164 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -431,8 +648,1154 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
